--- a/Assignments/Assignment 3/Results Assignment 1,2,3 - with names.xlsx
+++ b/Assignments/Assignment 3/Results Assignment 1,2,3 - with names.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bache\Documents\Studium&amp;Beruf\Uni\Master\1.Semester\Survey Tut\Survey_Tutorial_24_25\Assignments\Assignment 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\Studium\Tutorials\Tutorat ISM\Survey_Tutorial_24_25\Assignments\Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A162A3AA-5FF9-4A86-9B97-279474164EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514DB8E-5F80-43D4-B16D-6CCCD314A310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
   <si>
     <t>Name</t>
   </si>
@@ -403,6 +414,9 @@
   </si>
   <si>
     <t>Assignment 3</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
   </si>
 </sst>
 </file>
@@ -459,8 +473,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,22 +752,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="34.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -769,8 +783,11 @@
       <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -783,8 +800,14 @@
       <c r="D2" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -797,8 +820,14 @@
       <c r="D3" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -811,8 +840,14 @@
       <c r="D4" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -828,8 +863,11 @@
       <c r="E5" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -842,8 +880,14 @@
       <c r="D6" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -859,8 +903,11 @@
       <c r="E7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -873,8 +920,14 @@
       <c r="D8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -887,8 +940,14 @@
       <c r="D9" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -901,8 +960,14 @@
       <c r="D10" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -918,8 +983,11 @@
       <c r="E11" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -935,8 +1003,11 @@
       <c r="E12" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -952,8 +1023,11 @@
       <c r="E13" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -966,8 +1040,14 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F14">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -980,8 +1060,14 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F15">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -997,8 +1083,11 @@
       <c r="E16" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1011,8 +1100,14 @@
       <c r="D17" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -1028,8 +1123,11 @@
       <c r="E18" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1042,8 +1140,14 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1059,8 +1163,11 @@
       <c r="E20" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1076,8 +1183,11 @@
       <c r="E21" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1090,8 +1200,14 @@
       <c r="D22" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1104,8 +1220,14 @@
       <c r="D23" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F23">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1121,8 +1243,11 @@
       <c r="E24" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1138,8 +1263,11 @@
       <c r="E25" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1152,8 +1280,14 @@
       <c r="D26" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="1">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1169,8 +1303,11 @@
       <c r="E27" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -1186,8 +1323,11 @@
       <c r="E28" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1200,8 +1340,14 @@
       <c r="D29" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1214,8 +1360,14 @@
       <c r="D30" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1228,8 +1380,14 @@
       <c r="D31" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E31" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F31">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1242,8 +1400,14 @@
       <c r="D32" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E32" s="1">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1259,8 +1423,11 @@
       <c r="E33" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1273,8 +1440,14 @@
       <c r="D34" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -1290,8 +1463,11 @@
       <c r="E35" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1307,8 +1483,11 @@
       <c r="E36" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1324,8 +1503,11 @@
       <c r="E37" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1341,8 +1523,11 @@
       <c r="E38" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -1358,8 +1543,11 @@
       <c r="E39" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1375,8 +1563,11 @@
       <c r="E40" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1392,8 +1583,11 @@
       <c r="E41" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -1409,8 +1603,11 @@
       <c r="E42" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1426,8 +1623,11 @@
       <c r="E43" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1443,8 +1643,11 @@
       <c r="E44" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -1460,8 +1663,11 @@
       <c r="E45" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -1477,8 +1683,11 @@
       <c r="E46" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -1494,8 +1703,11 @@
       <c r="E47" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -1511,8 +1723,11 @@
       <c r="E48" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -1525,8 +1740,14 @@
       <c r="D49" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E49" s="1">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -1542,8 +1763,11 @@
       <c r="E50" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1556,8 +1780,14 @@
       <c r="D51" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E51" s="1">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1570,8 +1800,14 @@
       <c r="D52" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E52" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F52">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1584,8 +1820,14 @@
       <c r="D53" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E53" s="1">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -1601,8 +1843,11 @@
       <c r="E54" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -1618,8 +1863,11 @@
       <c r="E55" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -1632,8 +1880,14 @@
       <c r="D56" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -1646,8 +1900,14 @@
       <c r="D57" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E57" s="1">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1660,8 +1920,14 @@
       <c r="D58" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E58" s="1">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -1674,8 +1940,14 @@
       <c r="D59" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E59" s="1">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -1688,8 +1960,14 @@
       <c r="D60" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -1701,6 +1979,12 @@
       </c>
       <c r="D61" s="1">
         <v>6</v>
+      </c>
+      <c r="E61" s="1">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assignments/Assignment 3/Results Assignment 1,2,3 - with names.xlsx
+++ b/Assignments/Assignment 3/Results Assignment 1,2,3 - with names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\Studium\Tutorials\Tutorat ISM\Survey_Tutorial_24_25\Assignments\Assignment 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bache\Documents\Studium&amp;Beruf\Uni\Master\1.Semester\Survey Tut\Survey_Tutorial_24_25\Assignments\Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514DB8E-5F80-43D4-B16D-6CCCD314A310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8C799F-1AB3-4630-834C-DD91A7A57595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -416,7 +416,16 @@
     <t>Assignment 3</t>
   </si>
   <si>
-    <t>Gesamt</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-21 </t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
 </sst>
 </file>
@@ -442,12 +451,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -463,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,10 +486,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -752,22 +777,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="34.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="3"/>
+    <col min="10" max="10" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -783,11 +810,20 @@
       <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -803,11 +839,20 @@
       <c r="E2" s="1">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -823,11 +868,20 @@
       <c r="E3" s="1">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>17</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -843,11 +897,20 @@
       <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -863,11 +926,20 @@
       <c r="E5" s="1">
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -883,11 +955,20 @@
       <c r="E6" s="1">
         <v>7</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -903,11 +984,20 @@
       <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J7" s="5">
+        <v>13</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -923,11 +1013,20 @@
       <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>12</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -943,11 +1042,20 @@
       <c r="E9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>11</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -963,11 +1071,20 @@
       <c r="E10" s="1">
         <v>6</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -983,11 +1100,20 @@
       <c r="E11" s="1">
         <v>7</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>9</v>
+      </c>
+      <c r="K11" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -1003,11 +1129,14 @@
       <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1023,11 +1152,14 @@
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1043,11 +1175,15 @@
       <c r="E14" s="1">
         <v>5.5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1063,11 +1199,14 @@
       <c r="E15" s="1">
         <v>5.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -1083,11 +1222,14 @@
       <c r="E16" s="1">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1103,11 +1245,14 @@
       <c r="E17" s="1">
         <v>7</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -1123,11 +1268,14 @@
       <c r="E18" s="1">
         <v>7</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1143,11 +1291,14 @@
       <c r="E19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1163,11 +1314,14 @@
       <c r="E20" s="1">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1183,11 +1337,14 @@
       <c r="E21" s="1">
         <v>6</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1203,11 +1360,14 @@
       <c r="E22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1223,11 +1383,14 @@
       <c r="E23" s="1">
         <v>6.5</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1243,11 +1406,14 @@
       <c r="E24" s="1">
         <v>6</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1263,11 +1429,14 @@
       <c r="E25" s="1">
         <v>6</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1283,11 +1452,14 @@
       <c r="E26" s="1">
         <v>7</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1303,11 +1475,14 @@
       <c r="E27" s="1">
         <v>7</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -1323,11 +1498,14 @@
       <c r="E28" s="1">
         <v>6</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1343,11 +1521,14 @@
       <c r="E29" s="1">
         <v>7</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1363,11 +1544,14 @@
       <c r="E30" s="1">
         <v>6.5</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1383,11 +1567,14 @@
       <c r="E31" s="1">
         <v>6.5</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1403,11 +1590,14 @@
       <c r="E32" s="1">
         <v>7</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1423,11 +1613,14 @@
       <c r="E33" s="1">
         <v>7</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1443,11 +1636,14 @@
       <c r="E34" s="1">
         <v>4</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -1463,11 +1659,14 @@
       <c r="E35" s="1">
         <v>6</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1483,11 +1682,14 @@
       <c r="E36" s="1">
         <v>7</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1503,11 +1705,14 @@
       <c r="E37" s="1">
         <v>6</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1523,11 +1728,14 @@
       <c r="E38" s="1">
         <v>7</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -1543,11 +1751,14 @@
       <c r="E39" s="1">
         <v>7</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1563,11 +1774,14 @@
       <c r="E40" s="1">
         <v>6</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1583,11 +1797,14 @@
       <c r="E41" s="1">
         <v>7</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -1603,11 +1820,14 @@
       <c r="E42" s="1">
         <v>7</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1623,11 +1843,14 @@
       <c r="E43" s="1">
         <v>6</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1643,11 +1866,14 @@
       <c r="E44" s="1">
         <v>7</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -1663,11 +1889,14 @@
       <c r="E45" s="1">
         <v>6</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -1683,11 +1912,14 @@
       <c r="E46" s="1">
         <v>6</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -1703,11 +1935,14 @@
       <c r="E47" s="1">
         <v>6</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -1723,11 +1958,14 @@
       <c r="E48" s="1">
         <v>6</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -1743,11 +1981,14 @@
       <c r="E49" s="1">
         <v>7</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -1763,11 +2004,14 @@
       <c r="E50" s="1">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1783,11 +2027,14 @@
       <c r="E51" s="1">
         <v>6</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1803,11 +2050,14 @@
       <c r="E52" s="1">
         <v>6.5</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1823,11 +2073,14 @@
       <c r="E53" s="1">
         <v>7</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -1843,11 +2096,14 @@
       <c r="E54" s="1">
         <v>6</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -1863,11 +2119,14 @@
       <c r="E55" s="1">
         <v>7</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -1883,11 +2142,14 @@
       <c r="E56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -1903,11 +2165,14 @@
       <c r="E57" s="1">
         <v>7</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1923,11 +2188,14 @@
       <c r="E58" s="1">
         <v>7</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -1943,11 +2211,14 @@
       <c r="E59" s="1">
         <v>7</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -1963,11 +2234,14 @@
       <c r="E60" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="3">
+        <v>7</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -1983,8 +2257,11 @@
       <c r="E61" s="1">
         <v>7</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>20</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
